--- a/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-11/result-11_03_2025_pruned_9098792494_08-10.xlsx
+++ b/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-11/result-11_03_2025_pruned_9098792494_08-10.xlsx
@@ -517,7 +517,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9098774495</t>
+          <t>9098771270</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -527,12 +527,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-11T10:10:00+00:00</t>
+          <t>2025-03-11T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>819</v>
+        <v>11650</v>
       </c>
       <c r="I2">
         <f>IF(E2=E1,H2+I1,H2)</f>
@@ -564,24 +564,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9098781541</t>
+          <t>9098771534</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T08:17:00+00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T08:27:00+00:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
         <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>7623</v>
+        <v>7609</v>
       </c>
       <c r="I3">
         <f>IF(E3=E2,H3+I2,H3)</f>
@@ -628,24 +628,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9098774271</t>
+          <t>9098774495</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -655,12 +655,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-11T13:18:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-03-11T13:28:00+00:00</t>
+          <t>2025-03-11T10:10:00+00:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>8450</v>
+        <v>4336</v>
       </c>
       <c r="I4">
         <f>IF(E4=E3,H4+I3,H4)</f>
@@ -692,24 +692,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9098781093</t>
+          <t>9098779177</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-11T13:31:00+00:00</t>
+          <t>2025-03-11T10:10:00+00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-11T13:41:00+00:00</t>
+          <t>2025-03-11T10:20:00+00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>3382</v>
+        <v>205</v>
       </c>
       <c r="I5">
         <f>IF(E5=E4,H5+I4,H5)</f>
@@ -756,7 +756,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -766,14 +766,14 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9098781284</t>
+          <t>9098779870</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-11T13:41:00+00:00</t>
+          <t>2025-03-11T10:21:00+00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-11T13:51:00+00:00</t>
+          <t>2025-03-11T10:31:00+00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="I6">
         <f>IF(E6=E5,H6+I5,H6)</f>
@@ -820,24 +820,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9098771626</t>
+          <t>9098774271</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-11T13:56:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-11T14:06:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -864,10 +864,10 @@
         <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>5079</v>
+        <v>2028</v>
       </c>
       <c r="I7">
         <f>IF(E7=E6,H7+I6,H7)</f>
@@ -884,12 +884,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -901,7 +901,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9098787151</t>
+          <t>9098775542</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T13:13:00+00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T13:23:00+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -928,10 +928,10 @@
         <v>4.8</v>
       </c>
       <c r="G8" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>3425</v>
+        <v>3560</v>
       </c>
       <c r="I8">
         <f>IF(E8=E7,H8+I7,H8)</f>
@@ -943,7 +943,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -958,14 +958,14 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9098790370</t>
+          <t>9098781093</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-11T15:32:00+00:00</t>
+          <t>2025-03-11T13:23:00+00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-11T15:42:00+00:00</t>
+          <t>2025-03-11T13:33:00+00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -989,13 +989,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>2079</v>
+        <v>237</v>
       </c>
       <c r="I9">
         <f>IF(E9=E8,H9+I8,H9)</f>
@@ -1012,24 +1012,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>TERMOSİFON</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9098790278</t>
+          <t>9098781284</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-11T15:42:00+00:00</t>
+          <t>2025-03-11T13:33:00+00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-11T15:52:00+00:00</t>
+          <t>2025-03-11T13:43:00+00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="G10" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f>IF(E10=E9,H10+I9,H10)</f>
@@ -1076,24 +1076,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9098789647</t>
+          <t>9098787151</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-11T15:52:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-11T16:02:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1120,10 +1120,10 @@
         <v>5.1</v>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>431</v>
+        <v>2611</v>
       </c>
       <c r="I11">
         <f>IF(E11=E10,H11+I10,H11)</f>
@@ -1135,17 +1135,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1157,7 +1157,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9098782433</t>
+          <t>9098782484</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-11T16:02:00+00:00</t>
+          <t>2025-03-11T15:31:00+00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-03-11T16:12:00+00:00</t>
+          <t>2025-03-11T15:41:00+00:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.1</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>921</v>
+        <v>1930</v>
       </c>
       <c r="I12">
         <f>IF(E12=E11,H12+I11,H12)</f>
@@ -1204,12 +1204,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9098786430</t>
+          <t>9098790370</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-11T16:15:00+00:00</t>
+          <t>2025-03-11T15:41:00+00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-03-11T16:25:00+00:00</t>
+          <t>2025-03-11T15:51:00+00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.699999999999999</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>3441</v>
+        <v>152</v>
       </c>
       <c r="I13">
         <f>IF(E13=E12,H13+I12,H13)</f>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TERMOSİFON</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1285,7 +1285,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9098788196</t>
+          <t>9098790278</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-11T16:31:00+00:00</t>
+          <t>2025-03-11T15:51:00+00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-11T17:01:00+00:00</t>
+          <t>2025-03-11T16:01:00+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.899999999999999</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H14" t="n">
-        <v>6644</v>
+        <v>540</v>
       </c>
       <c r="I14">
         <f>IF(E14=E13,H14+I13,H14)</f>
@@ -1327,17 +1327,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1349,7 +1349,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9098774023</t>
+          <t>9098786387</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1359,27 +1359,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8999999999999999</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H15" t="n">
-        <v>6224</v>
+        <v>8722</v>
       </c>
       <c r="I15">
         <f>IF(E15=E14,H15+I14,H15)</f>
@@ -1391,29 +1391,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9098772819</t>
+          <t>9098794117</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1423,27 +1423,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-11T10:36:00+00:00</t>
+          <t>2025-03-11T17:10:00+00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-11T11:01:00+00:00</t>
+          <t>2025-03-11T17:20:00+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
-        <v>6999</v>
+        <v>630</v>
       </c>
       <c r="I16">
         <f>IF(E16=E15,H16+I15,H16)</f>
@@ -1455,29 +1455,29 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9098784226</t>
+          <t>9098774023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.7</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3472</v>
+        <v>6224</v>
       </c>
       <c r="I17">
         <f>IF(E17=E16,H17+I16,H17)</f>
@@ -1524,24 +1524,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9098782261</t>
+          <t>9098775365</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-11T13:31:00+00:00</t>
+          <t>2025-03-11T10:36:00+00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-11T14:01:00+00:00</t>
+          <t>2025-03-11T11:06:00+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>1366</v>
+        <v>6198</v>
       </c>
       <c r="I18">
         <f>IF(E18=E17,H18+I17,H18)</f>
@@ -1598,14 +1598,14 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9098784312</t>
+          <t>9098772819</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-11T14:01:00+00:00</t>
+          <t>2025-03-11T11:07:00+00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-11T14:31:00+00:00</t>
+          <t>2025-03-11T11:32:00+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>974</v>
+        <v>1984</v>
       </c>
       <c r="I19">
         <f>IF(E19=E18,H19+I18,H19)</f>
@@ -1652,24 +1652,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9098792656</t>
+          <t>9098784226</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-11T17:00:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-03-11T17:30:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1693,13 +1693,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>10889</v>
+        <v>3472</v>
       </c>
       <c r="I20">
         <f>IF(E20=E19,H20+I19,H20)</f>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1726,14 +1726,14 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9098780610</t>
+          <t>9098784312</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1743,27 +1743,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T13:32:00+00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T14:02:00+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8999999999999999</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>5380</v>
+        <v>2308</v>
       </c>
       <c r="I21">
         <f>IF(E21=E20,H21+I20,H21)</f>
@@ -1775,17 +1775,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9098771878</t>
+          <t>9098782261</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1807,27 +1807,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-11T13:15:00+00:00</t>
+          <t>2025-03-11T14:02:00+00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-03-11T13:25:00+00:00</t>
+          <t>2025-03-11T14:32:00+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>5635</v>
+        <v>974</v>
       </c>
       <c r="I22">
         <f>IF(E22=E21,H22+I21,H22)</f>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1861,7 +1861,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9098776574</t>
+          <t>9098789155</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1871,27 +1871,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-11T13:26:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-03-11T13:36:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>3.299999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>1990</v>
+        <v>3085</v>
       </c>
       <c r="I23">
         <f>IF(E23=E22,H23+I22,H23)</f>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1918,14 +1918,14 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9098775542</t>
+          <t>9098771424</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-11T13:37:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-03-11T13:47:00+00:00</t>
+          <t>2025-03-11T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1238</v>
+        <v>5290</v>
       </c>
       <c r="I24">
         <f>IF(E24=E23,H24+I23,H24)</f>
@@ -1972,24 +1972,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9098788820</t>
+          <t>9098771622</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T08:12:00+00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T08:22:00+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2013,13 +2013,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.899999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G25" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>9657</v>
+        <v>2850</v>
       </c>
       <c r="I25">
         <f>IF(E25=E24,H25+I24,H25)</f>
@@ -2031,29 +2031,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9098792113</t>
+          <t>9098773339</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-11T15:32:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-11T16:02:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2077,13 +2077,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G26" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>2400</v>
+        <v>1527</v>
       </c>
       <c r="I26">
         <f>IF(E26=E25,H26+I25,H26)</f>
@@ -2110,14 +2110,14 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9098789708</t>
+          <t>9098771878</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-11T16:08:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-11T16:18:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G27" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>6792</v>
+        <v>1421</v>
       </c>
       <c r="I27">
         <f>IF(E27=E26,H27+I26,H27)</f>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2174,14 +2174,14 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9098788869</t>
+          <t>9098776574</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-11T16:21:00+00:00</t>
+          <t>2025-03-11T13:11:00+00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-03-11T16:31:00+00:00</t>
+          <t>2025-03-11T13:21:00+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2205,13 +2205,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G28" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>3300</v>
+        <v>1990</v>
       </c>
       <c r="I28">
         <f>IF(E28=E27,H28+I27,H28)</f>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2238,14 +2238,14 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9098783572</t>
+          <t>9098780439</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-11T16:35:00+00:00</t>
+          <t>2025-03-11T13:24:00+00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-03-11T16:45:00+00:00</t>
+          <t>2025-03-11T13:34:00+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2269,13 +2269,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6.599999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
-        <v>4254</v>
+        <v>3717</v>
       </c>
       <c r="I29">
         <f>IF(E29=E28,H29+I28,H29)</f>
@@ -2292,24 +2292,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9098783663</t>
+          <t>9098788820</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-11T16:47:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-11T16:57:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2333,13 +2333,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6.899999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="G30" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H30" t="n">
-        <v>2487</v>
+        <v>6758</v>
       </c>
       <c r="I30">
         <f>IF(E30=E29,H30+I29,H30)</f>
@@ -2351,17 +2351,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9098789867</t>
+          <t>9098786430</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2383,27 +2383,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T15:36:00+00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-03-11T15:10:00+00:00</t>
+          <t>2025-03-11T15:46:00+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H31" t="n">
-        <v>3412</v>
+        <v>6676</v>
       </c>
       <c r="I31">
         <f>IF(E31=E30,H31+I30,H31)</f>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2437,7 +2437,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9098791528</t>
+          <t>9098789708</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2447,27 +2447,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-11T15:16:00+00:00</t>
+          <t>2025-03-11T15:47:00+00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-03-11T15:26:00+00:00</t>
+          <t>2025-03-11T15:57:00+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H32" t="n">
-        <v>6766</v>
+        <v>1221</v>
       </c>
       <c r="I32">
         <f>IF(E32=E31,H32+I31,H32)</f>
@@ -2501,7 +2501,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9098787715</t>
+          <t>9098788869</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2511,27 +2511,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-11T15:32:00+00:00</t>
+          <t>2025-03-11T16:00:00+00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-11T16:02:00+00:00</t>
+          <t>2025-03-11T16:10:00+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="G33" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H33" t="n">
-        <v>6778</v>
+        <v>3300</v>
       </c>
       <c r="I33">
         <f>IF(E33=E32,H33+I32,H33)</f>
@@ -2543,17 +2543,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9098788622</t>
+          <t>9098783572</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2575,27 +2575,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-11T16:03:00+00:00</t>
+          <t>2025-03-11T16:14:00+00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-11T17:53:00+00:00</t>
+          <t>2025-03-11T16:24:00+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.3</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H34" t="n">
-        <v>1893</v>
+        <v>4254</v>
       </c>
       <c r="I34">
         <f>IF(E34=E33,H34+I33,H34)</f>
@@ -2607,17 +2607,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2629,7 +2629,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9098792494</t>
+          <t>9098790082</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-11T08:00:00+00:00</t>
+          <t>2025-03-11T16:28:00+00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-03-11T08:30:00+00:00</t>
+          <t>2025-03-11T16:38:00+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.1</v>
+        <v>6.299999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H35" t="n">
-        <v>11343</v>
+        <v>4192</v>
       </c>
       <c r="I35">
         <f>IF(E35=E34,H35+I34,H35)</f>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2686,14 +2686,14 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9098773137</t>
+          <t>9098783663</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2703,27 +2703,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T16:40:00+00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T16:50:00+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>17810</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>6.599999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H36" t="n">
-        <v>14307</v>
+        <v>2911</v>
       </c>
       <c r="I36">
         <f>IF(E36=E35,H36+I35,H36)</f>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2750,14 +2750,14 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9098776399</t>
+          <t>9098782433</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2767,27 +2767,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-03-11T11:00:00+00:00</t>
+          <t>2025-03-11T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="G37" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>833</v>
+        <v>2200</v>
       </c>
       <c r="I37">
         <f>IF(E37=E36,H37+I36,H37)</f>
@@ -2799,29 +2799,29 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9098784101</t>
+          <t>9098789867</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2831,27 +2831,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T15:11:00+00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T15:21:00+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="G38" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>5020</v>
+        <v>1682</v>
       </c>
       <c r="I38">
         <f>IF(E38=E37,H38+I37,H38)</f>
@@ -2863,12 +2863,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2878,14 +2878,14 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9098788284</t>
+          <t>9098791528</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2895,27 +2895,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T15:27:00+00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T15:37:00+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>1337</v>
+        <v>6766</v>
       </c>
       <c r="I39">
         <f>IF(E39=E38,H39+I38,H39)</f>
@@ -2927,12 +2927,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2949,7 +2949,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9098795557</t>
+          <t>9098788196</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2959,27 +2959,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-11T19:00:00+00:00</t>
+          <t>2025-03-11T15:42:00+00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-03-11T19:30:00+00:00</t>
+          <t>2025-03-11T16:12:00+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>31158</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="G40" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H40" t="n">
-        <v>3269</v>
+        <v>5217</v>
       </c>
       <c r="I40">
         <f>IF(E40=E39,H40+I39,H40)</f>
@@ -2996,24 +2996,24 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>11.03.2025 19:00:00-23:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9098777198</t>
+          <t>9098788622</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3023,27 +3023,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T16:21:00+00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T18:11:00+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>26400</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H41" t="n">
-        <v>2705</v>
+        <v>9997</v>
       </c>
       <c r="I41">
         <f>IF(E41=E40,H41+I40,H41)</f>
@@ -3060,24 +3060,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9098775065</t>
+          <t>9098774741</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>2025-03-11T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2025-03-11T11:00:00+00:00</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>334</v>
+        <v>1979</v>
       </c>
       <c r="I42">
         <f>IF(E42=E41,H42+I41,H42)</f>
@@ -3119,12 +3119,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3141,7 +3141,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9098785508</t>
+          <t>9098784101</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3161,17 +3161,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1993</v>
+        <v>1181</v>
       </c>
       <c r="I43">
         <f>IF(E43=E42,H43+I42,H43)</f>
@@ -3183,12 +3183,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3205,7 +3205,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9098782004</t>
+          <t>9098788284</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3215,27 +3215,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-03-11T13:31:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-03-11T14:01:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>1153</v>
+        <v>1337</v>
       </c>
       <c r="I44">
         <f>IF(E44=E43,H44+I43,H44)</f>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3262,14 +3262,14 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9098791336</t>
+          <t>9098792656</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3279,27 +3279,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>8704</v>
+        <v>7467</v>
       </c>
       <c r="I45">
         <f>IF(E45=E44,H45+I44,H45)</f>
@@ -3311,29 +3311,29 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9098790474</t>
+          <t>9098793977</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3343,27 +3343,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T17:36:00+00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-03-11T16:00:00+00:00</t>
+          <t>2025-03-11T18:06:00+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H46" t="n">
-        <v>760</v>
+        <v>6211</v>
       </c>
       <c r="I46">
         <f>IF(E46=E45,H46+I45,H46)</f>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3390,14 +3390,14 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9098792857</t>
+          <t>9098795557</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3407,27 +3407,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-03-11T17:00:00+00:00</t>
+          <t>2025-03-11T19:00:00+00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-03-11T17:30:00+00:00</t>
+          <t>2025-03-11T19:30:00+00:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H47" t="n">
-        <v>744</v>
+        <v>2169</v>
       </c>
       <c r="I47">
         <f>IF(E47=E46,H47+I46,H47)</f>
@@ -3439,12 +3439,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3454,14 +3454,14 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 19:00:00-23:00:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>9098777733</t>
+          <t>9098777198</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1670</v>
+        <v>2705</v>
       </c>
       <c r="I48">
         <f>IF(E48=E47,H48+I47,H48)</f>
@@ -3503,17 +3503,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3525,7 +3525,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9098775365</t>
+          <t>9098785508</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3535,27 +3535,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-03-11T11:00:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>913</v>
+        <v>1701</v>
       </c>
       <c r="I49">
         <f>IF(E49=E48,H49+I48,H49)</f>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3582,14 +3582,14 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9098774741</t>
+          <t>9098781222</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3599,27 +3599,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-11T11:00:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-03-11T11:30:00+00:00</t>
+          <t>2025-03-11T14:00:00+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>865</v>
+        <v>784</v>
       </c>
       <c r="I50">
         <f>IF(E50=E49,H50+I49,H50)</f>
@@ -3631,29 +3631,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9098778346</t>
+          <t>9098779411</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3663,27 +3663,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T14:00:00+00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T14:30:00+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>475</v>
+        <v>693</v>
       </c>
       <c r="I51">
         <f>IF(E51=E50,H51+I50,H51)</f>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3710,14 +3710,14 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9098789155</t>
+          <t>9098791336</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3727,27 +3727,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-11T15:32:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-03-11T16:02:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>2668</v>
+        <v>7819</v>
       </c>
       <c r="I52">
         <f>IF(E52=E51,H52+I51,H52)</f>
@@ -3759,12 +3759,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3781,7 +3781,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9098794065</t>
+          <t>9098790474</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3791,27 +3791,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-11T17:00:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-03-11T17:30:00+00:00</t>
+          <t>2025-03-11T16:00:00+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H53" t="n">
-        <v>1135</v>
+        <v>760</v>
       </c>
       <c r="I53">
         <f>IF(E53=E52,H53+I52,H53)</f>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3838,14 +3838,14 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9098771269</t>
+          <t>9098791074</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3855,27 +3855,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-11T08:00:00+00:00</t>
+          <t>2025-03-11T16:05:00+00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-11T08:10:00+00:00</t>
+          <t>2025-03-11T16:35:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H54" t="n">
-        <v>2525</v>
+        <v>5817</v>
       </c>
       <c r="I54">
         <f>IF(E54=E53,H54+I53,H54)</f>
@@ -3887,29 +3887,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9098781431</t>
+          <t>9098792857</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3919,27 +3919,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>31593</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H55" t="n">
-        <v>1489</v>
+        <v>6022</v>
       </c>
       <c r="I55">
         <f>IF(E55=E54,H55+I54,H55)</f>
@@ -3951,29 +3951,29 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Keşif</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9098791265</t>
+          <t>9098773137</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3983,27 +3983,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-11T16:50:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="G56" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>8361</v>
+        <v>2980</v>
       </c>
       <c r="I56">
         <f>IF(E56=E55,H56+I55,H56)</f>
@@ -4015,29 +4015,29 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9098794117</t>
+          <t>9098777733</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4047,27 +4047,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-11T17:00:00+00:00</t>
+          <t>2025-03-11T10:34:00+00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-11T17:10:00+00:00</t>
+          <t>2025-03-11T11:04:00+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
-        <v>1192</v>
+        <v>4345</v>
       </c>
       <c r="I57">
         <f>IF(E57=E56,H57+I56,H57)</f>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4094,14 +4094,14 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9098773441</t>
+          <t>9098775289</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4111,27 +4111,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T11:15:00+00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T11:45:00+00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H58" t="n">
-        <v>1182</v>
+        <v>11044</v>
       </c>
       <c r="I58">
         <f>IF(E58=E57,H58+I57,H58)</f>
@@ -4143,17 +4143,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4165,7 +4165,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9098777339</t>
+          <t>9098787715</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4175,27 +4175,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-11T10:31:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-11T11:01:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.3</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H59" t="n">
-        <v>1695</v>
+        <v>8768</v>
       </c>
       <c r="I59">
         <f>IF(E59=E58,H59+I58,H59)</f>
@@ -4207,29 +4207,29 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9098779522</t>
+          <t>9098795169</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4239,27 +4239,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.6</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H60" t="n">
-        <v>2459</v>
+        <v>1059</v>
       </c>
       <c r="I60">
         <f>IF(E60=E59,H60+I59,H60)</f>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4286,14 +4286,14 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9098785263</t>
+          <t>9098794065</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4303,27 +4303,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-11T13:33:00+00:00</t>
+          <t>2025-03-11T17:30:00+00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-11T14:03:00+00:00</t>
+          <t>2025-03-11T18:00:00+00:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.2</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H61" t="n">
-        <v>3741</v>
+        <v>737</v>
       </c>
       <c r="I61">
         <f>IF(E61=E60,H61+I60,H61)</f>
@@ -4335,29 +4335,29 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9098778716</t>
+          <t>9098773672</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4367,27 +4367,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-11T14:07:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-03-11T14:37:00+00:00</t>
+          <t>2025-03-11T11:50:00+00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="G62" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>4401</v>
+        <v>2542</v>
       </c>
       <c r="I62">
         <f>IF(E62=E61,H62+I61,H62)</f>
@@ -4404,24 +4404,24 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9098782079</t>
+          <t>9098781431</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4431,27 +4431,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-11T14:39:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-03-11T15:09:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>2637</v>
+        <v>2691</v>
       </c>
       <c r="I63">
         <f>IF(E63=E62,H63+I62,H63)</f>
@@ -4463,17 +4463,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Keşif</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4485,7 +4485,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9098786969</t>
+          <t>9098791265</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4495,27 +4495,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-03-11T15:11:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-03-11T15:41:00+00:00</t>
+          <t>2025-03-11T16:50:00+00:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>35768</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.399999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="G64" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
-        <v>2561</v>
+        <v>8361</v>
       </c>
       <c r="I64">
         <f>IF(E64=E63,H64+I63,H64)</f>
@@ -4532,12 +4532,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4549,7 +4549,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9098771628</t>
+          <t>9098773441</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4559,27 +4559,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-03-11T08:00:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-11T08:30:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2219</v>
+        <v>1182</v>
       </c>
       <c r="I65">
         <f>IF(E65=E64,H65+I64,H65)</f>
@@ -4596,24 +4596,24 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9098771622</t>
+          <t>9098779522</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4623,27 +4623,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-03-11T08:34:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-03-11T08:44:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>4715</v>
+        <v>1314</v>
       </c>
       <c r="I66">
         <f>IF(E66=E65,H66+I65,H66)</f>
@@ -4655,29 +4655,29 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9098771424</t>
+          <t>9098785263</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4687,27 +4687,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-11T08:46:00+00:00</t>
+          <t>2025-03-11T13:33:00+00:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-03-11T08:56:00+00:00</t>
+          <t>2025-03-11T14:03:00+00:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>2850</v>
+        <v>3741</v>
       </c>
       <c r="I67">
         <f>IF(E67=E66,H67+I66,H67)</f>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4734,14 +4734,14 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9098772694</t>
+          <t>9098782004</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4751,27 +4751,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T14:04:00+00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T14:34:00+00:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>6176</v>
+        <v>1849</v>
       </c>
       <c r="I68">
         <f>IF(E68=E67,H68+I67,H68)</f>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -4798,14 +4798,14 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9098778830</t>
+          <t>9098778716</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4815,27 +4815,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T14:36:00+00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T15:06:00+00:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="G69" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H69" t="n">
-        <v>3349</v>
+        <v>2637</v>
       </c>
       <c r="I69">
         <f>IF(E69=E68,H69+I68,H69)</f>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -4869,7 +4869,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9098781222</t>
+          <t>9098786969</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4879,27 +4879,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-11T13:32:00+00:00</t>
+          <t>2025-03-11T15:10:00+00:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-03-11T14:02:00+00:00</t>
+          <t>2025-03-11T15:40:00+00:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="G70" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H70" t="n">
-        <v>2165</v>
+        <v>4972</v>
       </c>
       <c r="I70">
         <f>IF(E70=E69,H70+I69,H70)</f>
@@ -4926,14 +4926,14 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>9098780439</t>
+          <t>9098788898</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4943,27 +4943,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-11T14:03:00+00:00</t>
+          <t>2025-03-11T15:42:00+00:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-03-11T14:13:00+00:00</t>
+          <t>2025-03-11T16:12:00+00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H71" t="n">
-        <v>1074</v>
+        <v>2636</v>
       </c>
       <c r="I71">
         <f>IF(E71=E70,H71+I70,H71)</f>
@@ -4975,29 +4975,29 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9098779190</t>
+          <t>9098771628</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-11T14:14:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-03-11T14:44:00+00:00</t>
+          <t>2025-03-11T08:30:00+00:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5021,13 +5021,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.299999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G72" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1709</v>
+        <v>2219</v>
       </c>
       <c r="I72">
         <f>IF(E72=E71,H72+I71,H72)</f>
@@ -5044,24 +5044,24 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9098785972</t>
+          <t>9098772694</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-11T14:45:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-11T15:15:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5085,13 +5085,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3.599999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1821</v>
+        <v>1400</v>
       </c>
       <c r="I73">
         <f>IF(E73=E72,H73+I72,H73)</f>
@@ -5108,24 +5108,24 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9098788898</t>
+          <t>9098777339</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-11T15:16:00+00:00</t>
+          <t>2025-03-11T10:33:00+00:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-11T15:46:00+00:00</t>
+          <t>2025-03-11T11:03:00+00:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5149,13 +5149,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3.599999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>1221</v>
+        <v>3328</v>
       </c>
       <c r="I74">
         <f>IF(E74=E73,H74+I73,H74)</f>
@@ -5172,24 +5172,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9098782486</t>
+          <t>9098775065</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-11T15:48:00+00:00</t>
+          <t>2025-03-11T11:03:00+00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-11T15:58:00+00:00</t>
+          <t>2025-03-11T11:33:00+00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5213,13 +5213,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3.899999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>2542</v>
+        <v>334</v>
       </c>
       <c r="I75">
         <f>IF(E75=E74,H75+I74,H75)</f>
@@ -5231,12 +5231,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9098791074</t>
+          <t>9098785972</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-11T16:05:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-03-11T16:35:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5277,13 +5277,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5.099999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G76" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>7146</v>
+        <v>3667</v>
       </c>
       <c r="I76">
         <f>IF(E76=E75,H76+I75,H76)</f>
@@ -5300,24 +5300,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9098790082</t>
+          <t>9098778830</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-11T16:42:00+00:00</t>
+          <t>2025-03-11T13:33:00+00:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-03-11T16:52:00+00:00</t>
+          <t>2025-03-11T14:03:00+00:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5341,13 +5341,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>6.299999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="G77" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H77" t="n">
-        <v>7712</v>
+        <v>3125</v>
       </c>
       <c r="I77">
         <f>IF(E77=E76,H77+I76,H77)</f>
@@ -5359,29 +5359,29 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9098786053</t>
+          <t>9098779190</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5391,12 +5391,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-11T16:54:00+00:00</t>
+          <t>2025-03-11T14:04:00+00:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-03-11T17:24:00+00:00</t>
+          <t>2025-03-11T14:34:00+00:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6.599999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="G78" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H78" t="n">
-        <v>2462</v>
+        <v>1529</v>
       </c>
       <c r="I78">
         <f>IF(E78=E77,H78+I77,H78)</f>
@@ -5428,24 +5428,24 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9098786387</t>
+          <t>9098780610</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5455,12 +5455,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-11T17:31:00+00:00</t>
+          <t>2025-03-11T14:35:00+00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-11T17:41:00+00:00</t>
+          <t>2025-03-11T14:45:00+00:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5469,13 +5469,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>7.799999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="G79" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="H79" t="n">
-        <v>7231</v>
+        <v>1720</v>
       </c>
       <c r="I79">
         <f>IF(E79=E78,H79+I78,H79)</f>
@@ -5492,24 +5492,24 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9098778491</t>
+          <t>9098771626</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5519,27 +5519,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T14:52:00+00:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T15:02:00+00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H80" t="n">
-        <v>1999</v>
+        <v>7595</v>
       </c>
       <c r="I80">
         <f>IF(E80=E79,H80+I79,H80)</f>
@@ -5551,29 +5551,29 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9098774147</t>
+          <t>9098786053</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5583,27 +5583,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-11T10:31:00+00:00</t>
+          <t>2025-03-11T15:08:00+00:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-03-11T11:01:00+00:00</t>
+          <t>2025-03-11T15:38:00+00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.6</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H81" t="n">
-        <v>1721</v>
+        <v>6299</v>
       </c>
       <c r="I81">
         <f>IF(E81=E80,H81+I80,H81)</f>
@@ -5615,29 +5615,29 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9098775289</t>
+          <t>9098792494</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5647,12 +5647,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-11T11:13:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-03-11T11:43:00+00:00</t>
+          <t>2025-03-11T08:30:00+00:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="G82" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>12550</v>
+        <v>11343</v>
       </c>
       <c r="I82">
         <f>IF(E82=E81,H82+I81,H82)</f>
@@ -5694,14 +5694,14 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9098789152</t>
+          <t>9098776399</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5711,12 +5711,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5725,13 +5725,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="G83" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H83" t="n">
-        <v>9637</v>
+        <v>13505</v>
       </c>
       <c r="I83">
         <f>IF(E83=E82,H83+I82,H83)</f>
@@ -5748,24 +5748,24 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9098793977</t>
+          <t>9098778491</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-03-11T17:00:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-03-11T17:30:00+00:00</t>
+          <t>2025-03-11T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5792,10 +5792,10 @@
         <v>4.5</v>
       </c>
       <c r="G84" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H84" t="n">
-        <v>2594</v>
+        <v>555</v>
       </c>
       <c r="I84">
         <f>IF(E84=E83,H84+I83,H84)</f>
@@ -5822,14 +5822,14 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>9098795169</t>
+          <t>9098774147</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-11T17:30:00+00:00</t>
+          <t>2025-03-11T11:01:00+00:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-03-11T18:00:00+00:00</t>
+          <t>2025-03-11T11:31:00+00:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5853,13 +5853,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G85" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H85" t="n">
-        <v>722</v>
+        <v>1721</v>
       </c>
       <c r="I85">
         <f>IF(E85=E84,H85+I84,H85)</f>
@@ -5876,24 +5876,24 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>9098771270</t>
+          <t>9098789152</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5903,27 +5903,27 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-11T08:00:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-03-11T08:10:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H86" t="n">
-        <v>11650</v>
+        <v>2992</v>
       </c>
       <c r="I86">
         <f>IF(E86=E85,H86+I85,H86)</f>
@@ -5935,12 +5935,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -5950,14 +5950,14 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>9098771534</t>
+          <t>9098778346</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5967,27 +5967,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-03-11T08:17:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-03-11T08:27:00+00:00</t>
+          <t>2025-03-11T16:00:00+00:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H87" t="n">
-        <v>7609</v>
+        <v>775</v>
       </c>
       <c r="I87">
         <f>IF(E87=E86,H87+I86,H87)</f>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6014,14 +6014,14 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>9098779870</t>
+          <t>9098771264</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6031,12 +6031,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-03-11T10:10:00+00:00</t>
+          <t>2025-03-11T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6045,13 +6045,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>3855</v>
+        <v>2712</v>
       </c>
       <c r="I88">
         <f>IF(E88=E87,H88+I87,H88)</f>
@@ -6068,24 +6068,24 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>9098773339</t>
+          <t>9098781541</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6095,12 +6095,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-03-11T10:10:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-03-11T10:40:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="G89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
-        <v>616</v>
+        <v>5717</v>
       </c>
       <c r="I89">
         <f>IF(E89=E88,H89+I88,H89)</f>
@@ -6127,29 +6127,29 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>9098787918</t>
+          <t>9098792113</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-03-11T15:10:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6173,13 +6173,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H90" t="n">
-        <v>2526</v>
+        <v>3912</v>
       </c>
       <c r="I90">
         <f>IF(E90=E89,H90+I89,H90)</f>
@@ -6191,17 +6191,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6213,7 +6213,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>9098788592</t>
+          <t>9098782486</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-03-11T15:11:00+00:00</t>
+          <t>2025-03-11T15:38:00+00:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-03-11T15:21:00+00:00</t>
+          <t>2025-03-11T15:48:00+00:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="G91" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H91" t="n">
-        <v>1380</v>
+        <v>8841</v>
       </c>
       <c r="I91">
         <f>IF(E91=E90,H91+I90,H91)</f>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -6277,7 +6277,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>9098773672</t>
+          <t>9098771269</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-03-11T11:50:00+00:00</t>
+          <t>2025-03-11T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>2542</v>
+        <v>2525</v>
       </c>
       <c r="I92">
         <f>IF(E92=E91,H92+I91,H92)</f>
@@ -6319,22 +6319,22 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
@@ -6365,13 +6365,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H93" t="n">
-        <v>9765</v>
+        <v>8455</v>
       </c>
       <c r="I93">
         <f>IF(E93=E92,H93+I92,H93)</f>
@@ -6405,7 +6405,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>9098771264</t>
+          <t>9098788592</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6415,27 +6415,27 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-11T08:00:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-03-11T08:10:00+00:00</t>
+          <t>2025-03-11T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H94" t="n">
-        <v>2712</v>
+        <v>8713</v>
       </c>
       <c r="I94">
         <f>IF(E94=E93,H94+I93,H94)</f>
@@ -6452,17 +6452,17 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>3246</v>
+        <v>982</v>
       </c>
       <c r="I95">
         <f>IF(E95=E94,H95+I94,H95)</f>
@@ -6557,10 +6557,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>746</v>
@@ -6621,10 +6621,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6685,10 +6685,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>2633</v>
@@ -6725,7 +6725,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>9098779192</t>
+          <t>9098779073</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6749,10 +6749,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>1188</v>
@@ -6772,12 +6772,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -6789,7 +6789,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>9098779312</t>
+          <t>9098779192</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6813,10 +6813,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>9098779073</t>
+          <t>9098779312</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -6917,7 +6917,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>9098779411</t>
+          <t>9098782079</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-03-11T14:31:00+00:00</t>
+          <t>2025-03-11T14:30:00+00:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-03-11T15:01:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6941,13 +6941,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
-        <v>1529</v>
+        <v>298</v>
       </c>
       <c r="I102">
         <f>IF(E102=E101,H102+I101,H102)</f>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -6981,7 +6981,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>9098782484</t>
+          <t>9098787918</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6991,12 +6991,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-03-11T15:02:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-03-11T15:12:00+00:00</t>
+          <t>2025-03-11T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>1243</v>
+        <v>936</v>
       </c>
       <c r="I103">
         <f>IF(E103=E102,H103+I102,H103)</f>
@@ -7028,12 +7028,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7045,7 +7045,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>9098779177</t>
+          <t>9098780782</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7055,12 +7055,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-03-11T10:10:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1017</v>
+        <v>5990</v>
       </c>
       <c r="I104">
         <f>IF(E104=E103,H104+I103,H104)</f>
@@ -7092,24 +7092,24 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>9098780782</t>
+          <t>9098789647</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7133,13 +7133,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
-        <v>5839</v>
+        <v>3858</v>
       </c>
       <c r="I105">
         <f>IF(E105=E104,H105+I104,H105)</f>
@@ -7156,17 +7156,17 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
@@ -7929,19 +7929,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -7960,16 +7960,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7985,16 +7985,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -8041,10 +8041,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8053,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -8106,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -8125,10 +8125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8137,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -8156,13 +8156,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
         <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -8181,19 +8181,19 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -8237,13 +8237,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -8265,16 +8265,16 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
@@ -8324,13 +8324,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -8394,19 +8394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -8425,16 +8425,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D25" t="n">
         <v>90</v>
       </c>
       <c r="E25" t="n">
+        <v>30</v>
+      </c>
+      <c r="F25" t="n">
         <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>30</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -8450,16 +8450,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -8506,10 +8506,10 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
         <v>30</v>
-      </c>
-      <c r="C28" t="n">
-        <v>60</v>
       </c>
       <c r="D28" t="n">
         <v>30</v>
@@ -8518,7 +8518,7 @@
         <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G28" t="n">
         <v>30</v>
@@ -8537,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F29" t="n">
         <v>30</v>
@@ -8571,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="n">
         <v>60</v>
-      </c>
-      <c r="F30" t="n">
-        <v>30</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -8602,7 +8602,7 @@
         <v>110</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -8621,13 +8621,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>120</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -8646,19 +8646,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
+        <v>90</v>
+      </c>
+      <c r="D33" t="n">
+        <v>110</v>
+      </c>
+      <c r="E33" t="n">
         <v>30</v>
       </c>
-      <c r="D33" t="n">
-        <v>130</v>
-      </c>
-      <c r="E33" t="n">
-        <v>110</v>
-      </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
         <v>90</v>
@@ -8683,10 +8683,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
         <v>40</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>20</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -8730,16 +8730,16 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
         <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>110</v>
       </c>
       <c r="D36" t="n">
         <v>110</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>120</v>
@@ -8789,13 +8789,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -9326,11 +9326,11 @@
         <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9466,11 +9466,11 @@
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -9494,11 +9494,11 @@
         <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -9578,11 +9578,11 @@
         <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -9746,11 +9746,11 @@
         <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9914,11 +9914,11 @@
         <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10138,11 +10138,11 @@
         <v>4</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10502,11 +10502,11 @@
         <v>11</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10726,11 +10726,11 @@
         <v>4</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10838,11 +10838,11 @@
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -10866,11 +10866,11 @@
         <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -10950,11 +10950,11 @@
         <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -11510,11 +11510,11 @@
         <v>3</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11902,11 +11902,11 @@
         <v>4</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12686,11 +12686,11 @@
         <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12854,11 +12854,11 @@
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -13078,11 +13078,11 @@
         <v>4</v>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13834,11 +13834,11 @@
         <v>11</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14030,11 +14030,11 @@
         <v>11</v>
       </c>
       <c r="E186" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14254,11 +14254,11 @@
         <v>3</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -14422,11 +14422,11 @@
         <v>11</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F200" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14618,11 +14618,11 @@
         <v>11</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -14842,11 +14842,11 @@
         <v>4</v>
       </c>
       <c r="E215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15206,11 +15206,11 @@
         <v>11</v>
       </c>
       <c r="E228" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -15402,11 +15402,11 @@
         <v>11</v>
       </c>
       <c r="E235" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -15990,11 +15990,11 @@
         <v>11</v>
       </c>
       <c r="E256" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16186,11 +16186,11 @@
         <v>11</v>
       </c>
       <c r="E263" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16382,11 +16382,11 @@
         <v>4</v>
       </c>
       <c r="E270" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -16578,11 +16578,11 @@
         <v>11</v>
       </c>
       <c r="E277" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16774,11 +16774,11 @@
         <v>11</v>
       </c>
       <c r="E284" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -16970,11 +16970,11 @@
         <v>11</v>
       </c>
       <c r="E291" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17166,11 +17166,11 @@
         <v>11</v>
       </c>
       <c r="E298" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17390,11 +17390,11 @@
         <v>4</v>
       </c>
       <c r="E306" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17586,11 +17586,11 @@
         <v>4</v>
       </c>
       <c r="E313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17782,11 +17782,11 @@
         <v>4</v>
       </c>
       <c r="E320" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17978,11 +17978,11 @@
         <v>4</v>
       </c>
       <c r="E327" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18174,11 +18174,11 @@
         <v>4</v>
       </c>
       <c r="E334" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18370,11 +18370,11 @@
         <v>4</v>
       </c>
       <c r="E341" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19546,11 +19546,11 @@
         <v>4</v>
       </c>
       <c r="E383" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19714,11 +19714,11 @@
         <v>11</v>
       </c>
       <c r="E389" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -19910,11 +19910,11 @@
         <v>11</v>
       </c>
       <c r="E396" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20106,11 +20106,11 @@
         <v>4</v>
       </c>
       <c r="E403" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F403" s="2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -20134,11 +20134,11 @@
         <v>4</v>
       </c>
       <c r="E404" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20330,11 +20330,11 @@
         <v>4</v>
       </c>
       <c r="E411" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20694,11 +20694,11 @@
         <v>11</v>
       </c>
       <c r="E424" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -20890,11 +20890,11 @@
         <v>11</v>
       </c>
       <c r="E431" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F431" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -21506,11 +21506,11 @@
         <v>4</v>
       </c>
       <c r="E453" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F453" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21870,11 +21870,11 @@
         <v>11</v>
       </c>
       <c r="E466" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22066,11 +22066,11 @@
         <v>11</v>
       </c>
       <c r="E473" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F473" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22458,11 +22458,11 @@
         <v>11</v>
       </c>
       <c r="E487" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F487" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -22850,11 +22850,11 @@
         <v>4</v>
       </c>
       <c r="E501" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F501" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -22878,11 +22878,11 @@
         <v>4</v>
       </c>
       <c r="E502" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23074,11 +23074,11 @@
         <v>4</v>
       </c>
       <c r="E509" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23270,11 +23270,11 @@
         <v>4</v>
       </c>
       <c r="E516" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23438,11 +23438,11 @@
         <v>4</v>
       </c>
       <c r="E522" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F522" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -23466,11 +23466,11 @@
         <v>4</v>
       </c>
       <c r="E523" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23634,11 +23634,11 @@
         <v>11</v>
       </c>
       <c r="E529" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -23858,11 +23858,11 @@
         <v>4</v>
       </c>
       <c r="E537" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24614,11 +24614,11 @@
         <v>11</v>
       </c>
       <c r="E564" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -24810,11 +24810,11 @@
         <v>11</v>
       </c>
       <c r="E571" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F571" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -25034,11 +25034,11 @@
         <v>4</v>
       </c>
       <c r="E579" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -25230,11 +25230,11 @@
         <v>4</v>
       </c>
       <c r="E586" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -25398,11 +25398,11 @@
         <v>11</v>
       </c>
       <c r="E592" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -25622,11 +25622,11 @@
         <v>4</v>
       </c>
       <c r="E600" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -25818,11 +25818,11 @@
         <v>4</v>
       </c>
       <c r="E607" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -25930,11 +25930,11 @@
         <v>4</v>
       </c>
       <c r="E611" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -25958,11 +25958,11 @@
         <v>4</v>
       </c>
       <c r="E612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -26042,11 +26042,11 @@
         <v>4</v>
       </c>
       <c r="E615" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -26182,11 +26182,11 @@
         <v>11</v>
       </c>
       <c r="E620" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -26602,11 +26602,11 @@
         <v>4</v>
       </c>
       <c r="E635" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26770,11 +26770,11 @@
         <v>11</v>
       </c>
       <c r="E641" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -26966,11 +26966,11 @@
         <v>11</v>
       </c>
       <c r="E648" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F648" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -27162,11 +27162,11 @@
         <v>11</v>
       </c>
       <c r="E655" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -27386,11 +27386,11 @@
         <v>4</v>
       </c>
       <c r="E663" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27554,11 +27554,11 @@
         <v>11</v>
       </c>
       <c r="E669" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F669" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -27750,11 +27750,11 @@
         <v>11</v>
       </c>
       <c r="E676" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F676" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -28142,11 +28142,11 @@
         <v>11</v>
       </c>
       <c r="E690" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -28282,11 +28282,11 @@
         <v>4</v>
       </c>
       <c r="E695" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -28310,11 +28310,11 @@
         <v>4</v>
       </c>
       <c r="E696" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F696" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -28394,11 +28394,11 @@
         <v>4</v>
       </c>
       <c r="E699" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -28534,11 +28534,11 @@
         <v>11</v>
       </c>
       <c r="E704" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -28730,11 +28730,11 @@
         <v>11</v>
       </c>
       <c r="E711" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -28926,11 +28926,11 @@
         <v>11</v>
       </c>
       <c r="E718" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -29280,7 +29280,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42834</v>
+        <v>45644</v>
       </c>
     </row>
     <row r="3">
@@ -29290,7 +29290,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29924</v>
+        <v>24245</v>
       </c>
     </row>
     <row r="4">
@@ -29300,7 +29300,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43133</v>
+        <v>46107</v>
       </c>
     </row>
     <row r="5">
@@ -29310,7 +29310,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18849</v>
+        <v>25862</v>
       </c>
     </row>
     <row r="6">
@@ -29320,7 +29320,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36109</v>
+        <v>20344</v>
       </c>
     </row>
     <row r="7">
@@ -29330,7 +29330,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16393</v>
+        <v>26301</v>
       </c>
     </row>
     <row r="8">
@@ -29340,7 +29340,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7726</v>
+        <v>28933</v>
       </c>
     </row>
     <row r="9">
@@ -29350,7 +29350,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13567</v>
+        <v>13594</v>
       </c>
     </row>
     <row r="10">
@@ -29360,7 +29360,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18676</v>
+        <v>18331</v>
       </c>
     </row>
     <row r="11">
@@ -29370,7 +29370,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54392</v>
+        <v>31216</v>
       </c>
     </row>
     <row r="12">
@@ -29380,7 +29380,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29223</v>
+        <v>30891</v>
       </c>
     </row>
     <row r="13">
@@ -29390,7 +29390,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27636</v>
+        <v>21182</v>
       </c>
     </row>
     <row r="14">
@@ -29400,7 +29400,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12307</v>
+        <v>19693</v>
       </c>
     </row>
     <row r="15">
@@ -29410,7 +29410,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13297</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="16">
@@ -29420,7 +29420,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6856</v>
+        <v>9848</v>
       </c>
     </row>
   </sheetData>
@@ -29434,7 +29434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29461,7 +29461,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-33117476.44444444</v>
+        <v>-17716972.96666665</v>
       </c>
     </row>
     <row r="3">
@@ -29471,7 +29471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103999928</v>
+        <v>103999933.7</v>
       </c>
     </row>
     <row r="4">
@@ -29481,7 +29481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12087296</v>
+        <v>10625024</v>
       </c>
     </row>
     <row r="5">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3444444444444444</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -29522,6 +29522,16 @@
       </c>
       <c r="B8" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance_cost</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>66.3</v>
       </c>
     </row>
   </sheetData>
